--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="109">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -282,6 +282,66 @@
   </si>
   <si>
     <t xml:space="preserve">Both optimists and pessimists contribute to society. The optimist invents the aeroplane, the pessimist the parachute.&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,!-/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-9,A-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;.&lt;value&gt;°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both optimists and pessimists contribute to society. The optimist invents the aeroplane, the pessimist the parachute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;mantissa&gt;.&lt;fraction&gt;°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-z, -?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHLBKI.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1692,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="J7"/>
       <c r="L7" s="7" t="s">
@@ -1656,10 +1716,10 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1690,7 +1750,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -1704,7 +1764,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="J9"/>
       <c r="L9" s="11" t="s">
@@ -1861,7 +1921,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -1870,7 +1930,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1881,13 +1941,13 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1895,21 +1955,21 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -1921,12 +1981,12 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -1938,12 +1998,12 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1955,15 +2015,15 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -1972,46 +2032,46 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -2023,29 +2083,29 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -2057,15 +2117,15 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -2074,43 +2134,28 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
-      </c>
-    </row>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
